--- a/Document/계획서 제출/요구사항 정의서.xlsx
+++ b/Document/계획서 제출/요구사항 정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkiho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rudgn\OneDrive\바탕 화면\KDT\Projects\KDT_Project_2\kdt2024_2_1\Document\계획서 제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB815A31-691C-44E3-9173-BD1D09F1D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCAC379-B666-48D6-8904-9179EFD59924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="375" windowWidth="18615" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
   <si>
     <t>요구사항
  정의서</t>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>회원은 특정날짜 특정부서에 속한 직원의 근태를 확인할 수 있다.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>메일전송 및 확인</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -321,13 +317,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>SA002</t>
-  </si>
-  <si>
-    <t>이메일 중복확인</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>SA003</t>
   </si>
   <si>
@@ -336,10 +325,6 @@
   </si>
   <si>
     <t>서버는 회원이 로그인때 보낸 데이터가 유효한 데이터인지 데이터베이스에서 확인 후 응답한다.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버는 회원이 보낸 이메일이 기존에 있는 이메일인지 데이터베이스에서 확인후 응답한다.</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -375,11 +360,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>사용자가 사용자의 아이디, 비밀번호, 이름, 전화번호, 이메일을 입력해서 회원가입을 한다. 아이디와 전화번호, 이메일은 중복될 수 없다.
-회원의 아이디와 비밀번호는 최소 8글자 이상이여야 한다.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>SA004</t>
   </si>
   <si>
@@ -391,14 +371,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>근태관리(관리자)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버는 선택한 부서의 모든 회원의 근태기록을 전달한다.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>SA005</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -544,6 +516,26 @@
   </si>
   <si>
     <t>김경훈</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원관리</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 사용자의 아이디, 비밀번호, 이름, 전화번호, 이메일을 입력해서 회원가입을 한다. 아이디는 중복될 수 없다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원관리(관리자)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버는 모든 회원의 정보를 응답데이터로 전달한다.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원은 데이터베이스에 저장되어 있는 회원의 정보들을 볼 수 있다.</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -843,52 +835,52 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1134,42 +1126,42 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K457"/>
+  <dimension ref="A1:K456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="127.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="127.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1181,44 +1173,44 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="35">
+      <c r="B3" s="23"/>
+      <c r="C3" s="26">
         <v>45531</v>
       </c>
       <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="13.2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:11" ht="40.049999999999997" customHeight="1">
+    <row r="5" spans="1:11" ht="12.75">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="40.15" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>7</v>
@@ -1242,11 +1234,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1264,15 +1256,15 @@
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="36" t="s">
-        <v>125</v>
+      <c r="H7" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1280,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
@@ -1288,15 +1280,15 @@
       <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="36" t="s">
-        <v>125</v>
+      <c r="H8" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+    <row r="9" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
@@ -1312,13 +1304,13 @@
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21" t="s">
+      <c r="H9" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1336,13 +1328,13 @@
       <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21"/>
+      <c r="H10" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1358,17 +1350,17 @@
       <c r="G11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21" t="s">
+      <c r="H11" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
@@ -1382,15 +1374,15 @@
       <c r="G12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
+      <c r="H12" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>28</v>
@@ -1405,20 +1397,20 @@
         <v>17</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>15</v>
@@ -1427,14 +1419,14 @@
         <v>14</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>30</v>
@@ -1449,14 +1441,14 @@
         <v>15</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="21"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="40.15" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>32</v>
@@ -1471,14 +1463,14 @@
         <v>15</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A17" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1497,12 +1489,12 @@
         <v>17</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A18" s="35"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1519,12 +1511,12 @@
         <v>15</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A19" s="35"/>
+      <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1543,12 +1535,12 @@
         <v>14</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A20" s="35"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
@@ -1565,16 +1557,16 @@
         <v>17</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A21" s="35"/>
+      <c r="B21" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>51</v>
@@ -1589,20 +1581,20 @@
         <v>15</v>
       </c>
       <c r="H21" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A22" s="35"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>17</v>
@@ -1611,20 +1603,20 @@
         <v>15</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A23" s="35"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>17</v>
@@ -1633,42 +1625,42 @@
         <v>15</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="21"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A24" s="35"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A25" s="35"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="E25" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>59</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>17</v>
@@ -1677,24 +1669,24 @@
         <v>15</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>60</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A26" s="35" t="s">
+        <v>59</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>17</v>
@@ -1706,19 +1698,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>17</v>
@@ -1730,17 +1722,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+    <row r="28" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>17</v>
@@ -1752,17 +1744,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+    <row r="29" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>17</v>
@@ -1771,20 +1763,20 @@
         <v>15</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>17</v>
@@ -1793,20 +1785,20 @@
         <v>15</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>17</v>
@@ -1815,20 +1807,20 @@
         <v>15</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>17</v>
@@ -1837,20 +1829,20 @@
         <v>15</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>17</v>
@@ -1859,20 +1851,20 @@
         <v>15</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>17</v>
@@ -1881,20 +1873,20 @@
         <v>15</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>17</v>
@@ -1903,44 +1895,44 @@
         <v>15</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35" t="s">
+        <v>99</v>
+      </c>
       <c r="C36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>14</v>
@@ -1949,20 +1941,20 @@
         <v>15</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>14</v>
@@ -1971,20 +1963,20 @@
         <v>15</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>14</v>
@@ -1993,20 +1985,20 @@
         <v>15</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>14</v>
@@ -2015,20 +2007,20 @@
         <v>15</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="40.15" customHeight="1">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>14</v>
@@ -2037,438 +2029,417 @@
         <v>15</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="40.049999999999997" customHeight="1"/>
-    <row r="44" spans="1:8" ht="40.049999999999997" customHeight="1"/>
-    <row r="45" spans="1:8" ht="40.049999999999997" customHeight="1"/>
-    <row r="46" spans="1:8" ht="40.049999999999997" customHeight="1"/>
-    <row r="47" spans="1:8" ht="40.049999999999997" customHeight="1"/>
-    <row r="48" spans="1:8" ht="40.049999999999997" customHeight="1"/>
-    <row r="49" ht="40.049999999999997" customHeight="1"/>
-    <row r="50" ht="40.049999999999997" customHeight="1"/>
-    <row r="51" ht="40.049999999999997" customHeight="1"/>
-    <row r="52" ht="40.049999999999997" customHeight="1"/>
-    <row r="53" ht="40.049999999999997" customHeight="1"/>
-    <row r="54" ht="40.049999999999997" customHeight="1"/>
-    <row r="55" ht="40.049999999999997" customHeight="1"/>
-    <row r="56" ht="40.049999999999997" customHeight="1"/>
-    <row r="57" ht="40.049999999999997" customHeight="1"/>
-    <row r="58" ht="40.049999999999997" customHeight="1"/>
-    <row r="59" ht="40.049999999999997" customHeight="1"/>
-    <row r="60" ht="40.049999999999997" customHeight="1"/>
-    <row r="61" ht="40.049999999999997" customHeight="1"/>
-    <row r="62" ht="40.049999999999997" customHeight="1"/>
-    <row r="63" ht="40.049999999999997" customHeight="1"/>
-    <row r="64" ht="40.049999999999997" customHeight="1"/>
-    <row r="65" ht="40.049999999999997" customHeight="1"/>
-    <row r="66" ht="40.049999999999997" customHeight="1"/>
-    <row r="67" ht="40.049999999999997" customHeight="1"/>
-    <row r="68" ht="40.049999999999997" customHeight="1"/>
-    <row r="69" ht="40.049999999999997" customHeight="1"/>
-    <row r="70" ht="40.049999999999997" customHeight="1"/>
-    <row r="71" ht="40.049999999999997" customHeight="1"/>
-    <row r="72" ht="40.049999999999997" customHeight="1"/>
-    <row r="73" ht="40.049999999999997" customHeight="1"/>
-    <row r="74" ht="40.049999999999997" customHeight="1"/>
-    <row r="75" ht="40.049999999999997" customHeight="1"/>
-    <row r="76" ht="40.049999999999997" customHeight="1"/>
-    <row r="77" ht="40.049999999999997" customHeight="1"/>
-    <row r="78" ht="40.049999999999997" customHeight="1"/>
-    <row r="79" ht="40.049999999999997" customHeight="1"/>
-    <row r="80" ht="40.049999999999997" customHeight="1"/>
-    <row r="81" ht="40.049999999999997" customHeight="1"/>
-    <row r="82" ht="40.049999999999997" customHeight="1"/>
-    <row r="83" ht="40.049999999999997" customHeight="1"/>
-    <row r="84" ht="40.049999999999997" customHeight="1"/>
-    <row r="85" ht="40.049999999999997" customHeight="1"/>
-    <row r="86" ht="40.049999999999997" customHeight="1"/>
-    <row r="87" ht="40.049999999999997" customHeight="1"/>
-    <row r="88" ht="40.049999999999997" customHeight="1"/>
-    <row r="89" ht="40.049999999999997" customHeight="1"/>
-    <row r="90" ht="40.049999999999997" customHeight="1"/>
-    <row r="91" ht="40.049999999999997" customHeight="1"/>
-    <row r="92" ht="40.049999999999997" customHeight="1"/>
-    <row r="93" ht="40.049999999999997" customHeight="1"/>
-    <row r="94" ht="40.049999999999997" customHeight="1"/>
-    <row r="95" ht="40.049999999999997" customHeight="1"/>
-    <row r="96" ht="40.049999999999997" customHeight="1"/>
-    <row r="97" ht="40.049999999999997" customHeight="1"/>
-    <row r="98" ht="40.049999999999997" customHeight="1"/>
-    <row r="99" ht="40.049999999999997" customHeight="1"/>
-    <row r="100" ht="40.049999999999997" customHeight="1"/>
-    <row r="101" ht="40.049999999999997" customHeight="1"/>
-    <row r="102" ht="40.049999999999997" customHeight="1"/>
-    <row r="103" ht="40.049999999999997" customHeight="1"/>
-    <row r="104" ht="40.049999999999997" customHeight="1"/>
-    <row r="105" ht="40.049999999999997" customHeight="1"/>
-    <row r="106" ht="40.049999999999997" customHeight="1"/>
-    <row r="107" ht="40.049999999999997" customHeight="1"/>
-    <row r="108" ht="40.049999999999997" customHeight="1"/>
-    <row r="109" ht="40.049999999999997" customHeight="1"/>
-    <row r="110" ht="40.049999999999997" customHeight="1"/>
-    <row r="111" ht="40.049999999999997" customHeight="1"/>
-    <row r="112" ht="40.049999999999997" customHeight="1"/>
-    <row r="113" ht="40.049999999999997" customHeight="1"/>
-    <row r="114" ht="40.049999999999997" customHeight="1"/>
-    <row r="115" ht="40.049999999999997" customHeight="1"/>
-    <row r="116" ht="40.049999999999997" customHeight="1"/>
-    <row r="117" ht="40.049999999999997" customHeight="1"/>
-    <row r="118" ht="40.049999999999997" customHeight="1"/>
-    <row r="119" ht="40.049999999999997" customHeight="1"/>
-    <row r="120" ht="40.049999999999997" customHeight="1"/>
-    <row r="121" ht="40.049999999999997" customHeight="1"/>
-    <row r="122" ht="40.049999999999997" customHeight="1"/>
-    <row r="123" ht="40.049999999999997" customHeight="1"/>
-    <row r="124" ht="40.049999999999997" customHeight="1"/>
-    <row r="125" ht="40.049999999999997" customHeight="1"/>
-    <row r="126" ht="40.049999999999997" customHeight="1"/>
-    <row r="127" ht="40.049999999999997" customHeight="1"/>
-    <row r="128" ht="40.049999999999997" customHeight="1"/>
-    <row r="129" ht="40.049999999999997" customHeight="1"/>
-    <row r="130" ht="40.049999999999997" customHeight="1"/>
-    <row r="131" ht="40.049999999999997" customHeight="1"/>
-    <row r="132" ht="40.049999999999997" customHeight="1"/>
-    <row r="133" ht="40.049999999999997" customHeight="1"/>
-    <row r="134" ht="40.049999999999997" customHeight="1"/>
-    <row r="135" ht="40.049999999999997" customHeight="1"/>
-    <row r="136" ht="40.049999999999997" customHeight="1"/>
-    <row r="137" ht="40.049999999999997" customHeight="1"/>
-    <row r="138" ht="40.049999999999997" customHeight="1"/>
-    <row r="139" ht="40.049999999999997" customHeight="1"/>
-    <row r="140" ht="40.049999999999997" customHeight="1"/>
-    <row r="141" ht="40.049999999999997" customHeight="1"/>
-    <row r="142" ht="40.049999999999997" customHeight="1"/>
-    <row r="143" ht="40.049999999999997" customHeight="1"/>
-    <row r="144" ht="40.049999999999997" customHeight="1"/>
-    <row r="145" ht="40.049999999999997" customHeight="1"/>
-    <row r="146" ht="40.049999999999997" customHeight="1"/>
-    <row r="147" ht="40.049999999999997" customHeight="1"/>
-    <row r="148" ht="40.049999999999997" customHeight="1"/>
-    <row r="149" ht="40.049999999999997" customHeight="1"/>
-    <row r="150" ht="40.049999999999997" customHeight="1"/>
-    <row r="151" ht="40.049999999999997" customHeight="1"/>
-    <row r="152" ht="40.049999999999997" customHeight="1"/>
-    <row r="153" ht="40.049999999999997" customHeight="1"/>
-    <row r="154" ht="40.049999999999997" customHeight="1"/>
-    <row r="155" ht="40.049999999999997" customHeight="1"/>
-    <row r="156" ht="40.049999999999997" customHeight="1"/>
-    <row r="157" ht="40.049999999999997" customHeight="1"/>
-    <row r="158" ht="40.049999999999997" customHeight="1"/>
-    <row r="159" ht="40.049999999999997" customHeight="1"/>
-    <row r="160" ht="40.049999999999997" customHeight="1"/>
-    <row r="161" ht="40.049999999999997" customHeight="1"/>
-    <row r="162" ht="40.049999999999997" customHeight="1"/>
-    <row r="163" ht="40.049999999999997" customHeight="1"/>
-    <row r="164" ht="40.049999999999997" customHeight="1"/>
-    <row r="165" ht="40.049999999999997" customHeight="1"/>
-    <row r="166" ht="40.049999999999997" customHeight="1"/>
-    <row r="167" ht="40.049999999999997" customHeight="1"/>
-    <row r="168" ht="40.049999999999997" customHeight="1"/>
-    <row r="169" ht="40.049999999999997" customHeight="1"/>
-    <row r="170" ht="40.049999999999997" customHeight="1"/>
-    <row r="171" ht="40.049999999999997" customHeight="1"/>
-    <row r="172" ht="40.049999999999997" customHeight="1"/>
-    <row r="173" ht="40.049999999999997" customHeight="1"/>
-    <row r="174" ht="40.049999999999997" customHeight="1"/>
-    <row r="175" ht="40.049999999999997" customHeight="1"/>
-    <row r="176" ht="40.049999999999997" customHeight="1"/>
-    <row r="177" ht="40.049999999999997" customHeight="1"/>
-    <row r="178" ht="40.049999999999997" customHeight="1"/>
-    <row r="179" ht="40.049999999999997" customHeight="1"/>
-    <row r="180" ht="40.049999999999997" customHeight="1"/>
-    <row r="181" ht="40.049999999999997" customHeight="1"/>
-    <row r="182" ht="40.049999999999997" customHeight="1"/>
-    <row r="183" ht="40.049999999999997" customHeight="1"/>
-    <row r="184" ht="40.049999999999997" customHeight="1"/>
-    <row r="185" ht="40.049999999999997" customHeight="1"/>
-    <row r="186" ht="40.049999999999997" customHeight="1"/>
-    <row r="187" ht="40.049999999999997" customHeight="1"/>
-    <row r="188" ht="40.049999999999997" customHeight="1"/>
-    <row r="189" ht="40.049999999999997" customHeight="1"/>
-    <row r="190" ht="40.049999999999997" customHeight="1"/>
-    <row r="191" ht="40.049999999999997" customHeight="1"/>
-    <row r="192" ht="40.049999999999997" customHeight="1"/>
-    <row r="193" ht="40.049999999999997" customHeight="1"/>
-    <row r="194" ht="40.049999999999997" customHeight="1"/>
-    <row r="195" ht="40.049999999999997" customHeight="1"/>
-    <row r="196" ht="40.049999999999997" customHeight="1"/>
-    <row r="197" ht="40.049999999999997" customHeight="1"/>
-    <row r="198" ht="40.049999999999997" customHeight="1"/>
-    <row r="199" ht="40.049999999999997" customHeight="1"/>
-    <row r="200" ht="40.049999999999997" customHeight="1"/>
-    <row r="201" ht="40.049999999999997" customHeight="1"/>
-    <row r="202" ht="40.049999999999997" customHeight="1"/>
-    <row r="203" ht="40.049999999999997" customHeight="1"/>
-    <row r="204" ht="40.049999999999997" customHeight="1"/>
-    <row r="205" ht="40.049999999999997" customHeight="1"/>
-    <row r="206" ht="40.049999999999997" customHeight="1"/>
-    <row r="207" ht="40.049999999999997" customHeight="1"/>
-    <row r="208" ht="40.049999999999997" customHeight="1"/>
-    <row r="209" ht="40.049999999999997" customHeight="1"/>
-    <row r="210" ht="40.049999999999997" customHeight="1"/>
-    <row r="211" ht="40.049999999999997" customHeight="1"/>
-    <row r="212" ht="40.049999999999997" customHeight="1"/>
-    <row r="213" ht="40.049999999999997" customHeight="1"/>
-    <row r="214" ht="40.049999999999997" customHeight="1"/>
-    <row r="215" ht="40.049999999999997" customHeight="1"/>
-    <row r="216" ht="40.049999999999997" customHeight="1"/>
-    <row r="217" ht="40.049999999999997" customHeight="1"/>
-    <row r="218" ht="40.049999999999997" customHeight="1"/>
-    <row r="219" ht="40.049999999999997" customHeight="1"/>
-    <row r="220" ht="40.049999999999997" customHeight="1"/>
-    <row r="221" ht="40.049999999999997" customHeight="1"/>
-    <row r="222" ht="40.049999999999997" customHeight="1"/>
-    <row r="223" ht="40.049999999999997" customHeight="1"/>
-    <row r="224" ht="40.049999999999997" customHeight="1"/>
-    <row r="225" ht="40.049999999999997" customHeight="1"/>
-    <row r="226" ht="40.049999999999997" customHeight="1"/>
-    <row r="227" ht="40.049999999999997" customHeight="1"/>
-    <row r="228" ht="40.049999999999997" customHeight="1"/>
-    <row r="229" ht="40.049999999999997" customHeight="1"/>
-    <row r="230" ht="40.049999999999997" customHeight="1"/>
-    <row r="231" ht="40.049999999999997" customHeight="1"/>
-    <row r="232" ht="40.049999999999997" customHeight="1"/>
-    <row r="233" ht="40.049999999999997" customHeight="1"/>
-    <row r="234" ht="40.049999999999997" customHeight="1"/>
-    <row r="235" ht="40.049999999999997" customHeight="1"/>
-    <row r="236" ht="40.049999999999997" customHeight="1"/>
-    <row r="237" ht="40.049999999999997" customHeight="1"/>
-    <row r="238" ht="40.049999999999997" customHeight="1"/>
-    <row r="239" ht="40.049999999999997" customHeight="1"/>
-    <row r="240" ht="40.049999999999997" customHeight="1"/>
-    <row r="241" ht="40.049999999999997" customHeight="1"/>
-    <row r="242" ht="40.049999999999997" customHeight="1"/>
-    <row r="243" ht="40.049999999999997" customHeight="1"/>
-    <row r="244" ht="40.049999999999997" customHeight="1"/>
-    <row r="245" ht="40.049999999999997" customHeight="1"/>
-    <row r="246" ht="40.049999999999997" customHeight="1"/>
-    <row r="247" ht="40.049999999999997" customHeight="1"/>
-    <row r="248" ht="40.049999999999997" customHeight="1"/>
-    <row r="249" ht="40.049999999999997" customHeight="1"/>
-    <row r="250" ht="40.049999999999997" customHeight="1"/>
-    <row r="251" ht="40.049999999999997" customHeight="1"/>
-    <row r="252" ht="40.049999999999997" customHeight="1"/>
-    <row r="253" ht="40.049999999999997" customHeight="1"/>
-    <row r="254" ht="40.049999999999997" customHeight="1"/>
-    <row r="255" ht="40.049999999999997" customHeight="1"/>
-    <row r="256" ht="40.049999999999997" customHeight="1"/>
-    <row r="257" ht="40.049999999999997" customHeight="1"/>
-    <row r="258" ht="40.049999999999997" customHeight="1"/>
-    <row r="259" ht="40.049999999999997" customHeight="1"/>
-    <row r="260" ht="40.049999999999997" customHeight="1"/>
-    <row r="261" ht="40.049999999999997" customHeight="1"/>
-    <row r="262" ht="40.049999999999997" customHeight="1"/>
-    <row r="263" ht="40.049999999999997" customHeight="1"/>
-    <row r="264" ht="40.049999999999997" customHeight="1"/>
-    <row r="265" ht="40.049999999999997" customHeight="1"/>
-    <row r="266" ht="40.049999999999997" customHeight="1"/>
-    <row r="267" ht="40.049999999999997" customHeight="1"/>
-    <row r="268" ht="40.049999999999997" customHeight="1"/>
-    <row r="269" ht="40.049999999999997" customHeight="1"/>
-    <row r="270" ht="40.049999999999997" customHeight="1"/>
-    <row r="271" ht="40.049999999999997" customHeight="1"/>
-    <row r="272" ht="40.049999999999997" customHeight="1"/>
-    <row r="273" ht="40.049999999999997" customHeight="1"/>
-    <row r="274" ht="40.049999999999997" customHeight="1"/>
-    <row r="275" ht="40.049999999999997" customHeight="1"/>
-    <row r="276" ht="40.049999999999997" customHeight="1"/>
-    <row r="277" ht="40.049999999999997" customHeight="1"/>
-    <row r="278" ht="40.049999999999997" customHeight="1"/>
-    <row r="279" ht="40.049999999999997" customHeight="1"/>
-    <row r="280" ht="40.049999999999997" customHeight="1"/>
-    <row r="281" ht="40.049999999999997" customHeight="1"/>
-    <row r="282" ht="40.049999999999997" customHeight="1"/>
-    <row r="283" ht="40.049999999999997" customHeight="1"/>
-    <row r="284" ht="40.049999999999997" customHeight="1"/>
-    <row r="285" ht="40.049999999999997" customHeight="1"/>
-    <row r="286" ht="40.049999999999997" customHeight="1"/>
-    <row r="287" ht="40.049999999999997" customHeight="1"/>
-    <row r="288" ht="40.049999999999997" customHeight="1"/>
-    <row r="289" ht="40.049999999999997" customHeight="1"/>
-    <row r="290" ht="40.049999999999997" customHeight="1"/>
-    <row r="291" ht="40.049999999999997" customHeight="1"/>
-    <row r="292" ht="40.049999999999997" customHeight="1"/>
-    <row r="293" ht="40.049999999999997" customHeight="1"/>
-    <row r="294" ht="40.049999999999997" customHeight="1"/>
-    <row r="295" ht="40.049999999999997" customHeight="1"/>
-    <row r="296" ht="40.049999999999997" customHeight="1"/>
-    <row r="297" ht="40.049999999999997" customHeight="1"/>
-    <row r="298" ht="40.049999999999997" customHeight="1"/>
-    <row r="299" ht="40.049999999999997" customHeight="1"/>
-    <row r="300" ht="40.049999999999997" customHeight="1"/>
-    <row r="301" ht="40.049999999999997" customHeight="1"/>
-    <row r="302" ht="40.049999999999997" customHeight="1"/>
-    <row r="303" ht="40.049999999999997" customHeight="1"/>
-    <row r="304" ht="40.049999999999997" customHeight="1"/>
-    <row r="305" ht="40.049999999999997" customHeight="1"/>
-    <row r="306" ht="40.049999999999997" customHeight="1"/>
-    <row r="307" ht="40.049999999999997" customHeight="1"/>
-    <row r="308" ht="40.049999999999997" customHeight="1"/>
-    <row r="309" ht="40.049999999999997" customHeight="1"/>
-    <row r="310" ht="40.049999999999997" customHeight="1"/>
-    <row r="311" ht="40.049999999999997" customHeight="1"/>
-    <row r="312" ht="40.049999999999997" customHeight="1"/>
-    <row r="313" ht="40.049999999999997" customHeight="1"/>
-    <row r="314" ht="40.049999999999997" customHeight="1"/>
-    <row r="315" ht="40.049999999999997" customHeight="1"/>
-    <row r="316" ht="40.049999999999997" customHeight="1"/>
-    <row r="317" ht="40.049999999999997" customHeight="1"/>
-    <row r="318" ht="40.049999999999997" customHeight="1"/>
-    <row r="319" ht="40.049999999999997" customHeight="1"/>
-    <row r="320" ht="40.049999999999997" customHeight="1"/>
-    <row r="321" ht="40.049999999999997" customHeight="1"/>
-    <row r="322" ht="40.049999999999997" customHeight="1"/>
-    <row r="323" ht="40.049999999999997" customHeight="1"/>
-    <row r="324" ht="40.049999999999997" customHeight="1"/>
-    <row r="325" ht="40.049999999999997" customHeight="1"/>
-    <row r="326" ht="40.049999999999997" customHeight="1"/>
-    <row r="327" ht="40.049999999999997" customHeight="1"/>
-    <row r="328" ht="40.049999999999997" customHeight="1"/>
-    <row r="329" ht="40.049999999999997" customHeight="1"/>
-    <row r="330" ht="40.049999999999997" customHeight="1"/>
-    <row r="331" ht="40.049999999999997" customHeight="1"/>
-    <row r="332" ht="40.049999999999997" customHeight="1"/>
-    <row r="333" ht="40.049999999999997" customHeight="1"/>
-    <row r="334" ht="40.049999999999997" customHeight="1"/>
-    <row r="335" ht="40.049999999999997" customHeight="1"/>
-    <row r="336" ht="40.049999999999997" customHeight="1"/>
-    <row r="337" ht="40.049999999999997" customHeight="1"/>
-    <row r="338" ht="40.049999999999997" customHeight="1"/>
-    <row r="339" ht="40.049999999999997" customHeight="1"/>
-    <row r="340" ht="40.049999999999997" customHeight="1"/>
-    <row r="341" ht="40.049999999999997" customHeight="1"/>
-    <row r="342" ht="40.049999999999997" customHeight="1"/>
-    <row r="343" ht="40.049999999999997" customHeight="1"/>
-    <row r="344" ht="40.049999999999997" customHeight="1"/>
-    <row r="345" ht="40.049999999999997" customHeight="1"/>
-    <row r="346" ht="40.049999999999997" customHeight="1"/>
-    <row r="347" ht="40.049999999999997" customHeight="1"/>
-    <row r="348" ht="40.049999999999997" customHeight="1"/>
-    <row r="349" ht="40.049999999999997" customHeight="1"/>
-    <row r="350" ht="40.049999999999997" customHeight="1"/>
-    <row r="351" ht="40.049999999999997" customHeight="1"/>
-    <row r="352" ht="40.049999999999997" customHeight="1"/>
-    <row r="353" ht="40.049999999999997" customHeight="1"/>
-    <row r="354" ht="40.049999999999997" customHeight="1"/>
-    <row r="355" ht="40.049999999999997" customHeight="1"/>
-    <row r="356" ht="40.049999999999997" customHeight="1"/>
-    <row r="357" ht="40.049999999999997" customHeight="1"/>
-    <row r="358" ht="40.049999999999997" customHeight="1"/>
-    <row r="359" ht="40.049999999999997" customHeight="1"/>
-    <row r="360" ht="40.049999999999997" customHeight="1"/>
-    <row r="361" ht="40.049999999999997" customHeight="1"/>
-    <row r="362" ht="40.049999999999997" customHeight="1"/>
-    <row r="363" ht="40.049999999999997" customHeight="1"/>
-    <row r="364" ht="40.049999999999997" customHeight="1"/>
-    <row r="365" ht="40.049999999999997" customHeight="1"/>
-    <row r="366" ht="40.049999999999997" customHeight="1"/>
-    <row r="367" ht="40.049999999999997" customHeight="1"/>
-    <row r="368" ht="40.049999999999997" customHeight="1"/>
-    <row r="369" ht="40.049999999999997" customHeight="1"/>
-    <row r="370" ht="40.049999999999997" customHeight="1"/>
-    <row r="371" ht="40.049999999999997" customHeight="1"/>
-    <row r="372" ht="40.049999999999997" customHeight="1"/>
-    <row r="373" ht="40.049999999999997" customHeight="1"/>
-    <row r="374" ht="40.049999999999997" customHeight="1"/>
-    <row r="375" ht="40.049999999999997" customHeight="1"/>
-    <row r="376" ht="40.049999999999997" customHeight="1"/>
-    <row r="377" ht="40.049999999999997" customHeight="1"/>
-    <row r="378" ht="40.049999999999997" customHeight="1"/>
-    <row r="379" ht="40.049999999999997" customHeight="1"/>
-    <row r="380" ht="40.049999999999997" customHeight="1"/>
-    <row r="381" ht="40.049999999999997" customHeight="1"/>
-    <row r="382" ht="40.049999999999997" customHeight="1"/>
-    <row r="383" ht="40.049999999999997" customHeight="1"/>
-    <row r="384" ht="40.049999999999997" customHeight="1"/>
-    <row r="385" ht="40.049999999999997" customHeight="1"/>
-    <row r="386" ht="40.049999999999997" customHeight="1"/>
-    <row r="387" ht="40.049999999999997" customHeight="1"/>
-    <row r="388" ht="40.049999999999997" customHeight="1"/>
-    <row r="389" ht="40.049999999999997" customHeight="1"/>
-    <row r="390" ht="40.049999999999997" customHeight="1"/>
-    <row r="391" ht="40.049999999999997" customHeight="1"/>
-    <row r="392" ht="40.049999999999997" customHeight="1"/>
-    <row r="393" ht="40.049999999999997" customHeight="1"/>
-    <row r="394" ht="40.049999999999997" customHeight="1"/>
-    <row r="395" ht="40.049999999999997" customHeight="1"/>
-    <row r="396" ht="40.049999999999997" customHeight="1"/>
-    <row r="397" ht="40.049999999999997" customHeight="1"/>
-    <row r="398" ht="40.049999999999997" customHeight="1"/>
-    <row r="399" ht="40.049999999999997" customHeight="1"/>
-    <row r="400" ht="40.049999999999997" customHeight="1"/>
-    <row r="401" ht="40.049999999999997" customHeight="1"/>
-    <row r="402" ht="40.049999999999997" customHeight="1"/>
-    <row r="403" ht="40.049999999999997" customHeight="1"/>
-    <row r="404" ht="40.049999999999997" customHeight="1"/>
-    <row r="405" ht="40.049999999999997" customHeight="1"/>
-    <row r="406" ht="40.049999999999997" customHeight="1"/>
-    <row r="407" ht="40.049999999999997" customHeight="1"/>
-    <row r="408" ht="40.049999999999997" customHeight="1"/>
-    <row r="409" ht="40.049999999999997" customHeight="1"/>
-    <row r="410" ht="40.049999999999997" customHeight="1"/>
-    <row r="411" ht="40.049999999999997" customHeight="1"/>
-    <row r="412" ht="40.049999999999997" customHeight="1"/>
-    <row r="413" ht="40.049999999999997" customHeight="1"/>
-    <row r="414" ht="40.049999999999997" customHeight="1"/>
-    <row r="415" ht="40.049999999999997" customHeight="1"/>
-    <row r="416" ht="40.049999999999997" customHeight="1"/>
-    <row r="417" ht="40.049999999999997" customHeight="1"/>
-    <row r="418" ht="40.049999999999997" customHeight="1"/>
-    <row r="419" ht="40.049999999999997" customHeight="1"/>
-    <row r="420" ht="40.049999999999997" customHeight="1"/>
-    <row r="421" ht="40.049999999999997" customHeight="1"/>
-    <row r="422" ht="40.049999999999997" customHeight="1"/>
-    <row r="423" ht="40.049999999999997" customHeight="1"/>
-    <row r="424" ht="40.049999999999997" customHeight="1"/>
-    <row r="425" ht="40.049999999999997" customHeight="1"/>
-    <row r="426" ht="40.049999999999997" customHeight="1"/>
-    <row r="427" ht="40.049999999999997" customHeight="1"/>
-    <row r="428" ht="40.049999999999997" customHeight="1"/>
-    <row r="429" ht="40.049999999999997" customHeight="1"/>
-    <row r="430" ht="40.049999999999997" customHeight="1"/>
-    <row r="431" ht="40.049999999999997" customHeight="1"/>
-    <row r="432" ht="40.049999999999997" customHeight="1"/>
-    <row r="433" ht="40.049999999999997" customHeight="1"/>
-    <row r="434" ht="40.049999999999997" customHeight="1"/>
-    <row r="435" ht="40.049999999999997" customHeight="1"/>
-    <row r="436" ht="40.049999999999997" customHeight="1"/>
-    <row r="437" ht="40.049999999999997" customHeight="1"/>
-    <row r="438" ht="40.049999999999997" customHeight="1"/>
-    <row r="439" ht="40.049999999999997" customHeight="1"/>
-    <row r="440" ht="40.049999999999997" customHeight="1"/>
-    <row r="441" ht="40.049999999999997" customHeight="1"/>
-    <row r="442" ht="40.049999999999997" customHeight="1"/>
-    <row r="443" ht="40.049999999999997" customHeight="1"/>
-    <row r="444" ht="40.049999999999997" customHeight="1"/>
-    <row r="445" ht="40.049999999999997" customHeight="1"/>
-    <row r="446" ht="40.049999999999997" customHeight="1"/>
-    <row r="447" ht="40.049999999999997" customHeight="1"/>
-    <row r="448" ht="40.049999999999997" customHeight="1"/>
-    <row r="449" ht="40.049999999999997" customHeight="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="40.15" customHeight="1"/>
+    <row r="43" spans="1:8" ht="40.15" customHeight="1"/>
+    <row r="44" spans="1:8" ht="40.15" customHeight="1"/>
+    <row r="45" spans="1:8" ht="40.15" customHeight="1"/>
+    <row r="46" spans="1:8" ht="40.15" customHeight="1"/>
+    <row r="47" spans="1:8" ht="40.15" customHeight="1"/>
+    <row r="48" spans="1:8" ht="40.15" customHeight="1"/>
+    <row r="49" ht="40.15" customHeight="1"/>
+    <row r="50" ht="40.15" customHeight="1"/>
+    <row r="51" ht="40.15" customHeight="1"/>
+    <row r="52" ht="40.15" customHeight="1"/>
+    <row r="53" ht="40.15" customHeight="1"/>
+    <row r="54" ht="40.15" customHeight="1"/>
+    <row r="55" ht="40.15" customHeight="1"/>
+    <row r="56" ht="40.15" customHeight="1"/>
+    <row r="57" ht="40.15" customHeight="1"/>
+    <row r="58" ht="40.15" customHeight="1"/>
+    <row r="59" ht="40.15" customHeight="1"/>
+    <row r="60" ht="40.15" customHeight="1"/>
+    <row r="61" ht="40.15" customHeight="1"/>
+    <row r="62" ht="40.15" customHeight="1"/>
+    <row r="63" ht="40.15" customHeight="1"/>
+    <row r="64" ht="40.15" customHeight="1"/>
+    <row r="65" ht="40.15" customHeight="1"/>
+    <row r="66" ht="40.15" customHeight="1"/>
+    <row r="67" ht="40.15" customHeight="1"/>
+    <row r="68" ht="40.15" customHeight="1"/>
+    <row r="69" ht="40.15" customHeight="1"/>
+    <row r="70" ht="40.15" customHeight="1"/>
+    <row r="71" ht="40.15" customHeight="1"/>
+    <row r="72" ht="40.15" customHeight="1"/>
+    <row r="73" ht="40.15" customHeight="1"/>
+    <row r="74" ht="40.15" customHeight="1"/>
+    <row r="75" ht="40.15" customHeight="1"/>
+    <row r="76" ht="40.15" customHeight="1"/>
+    <row r="77" ht="40.15" customHeight="1"/>
+    <row r="78" ht="40.15" customHeight="1"/>
+    <row r="79" ht="40.15" customHeight="1"/>
+    <row r="80" ht="40.15" customHeight="1"/>
+    <row r="81" ht="40.15" customHeight="1"/>
+    <row r="82" ht="40.15" customHeight="1"/>
+    <row r="83" ht="40.15" customHeight="1"/>
+    <row r="84" ht="40.15" customHeight="1"/>
+    <row r="85" ht="40.15" customHeight="1"/>
+    <row r="86" ht="40.15" customHeight="1"/>
+    <row r="87" ht="40.15" customHeight="1"/>
+    <row r="88" ht="40.15" customHeight="1"/>
+    <row r="89" ht="40.15" customHeight="1"/>
+    <row r="90" ht="40.15" customHeight="1"/>
+    <row r="91" ht="40.15" customHeight="1"/>
+    <row r="92" ht="40.15" customHeight="1"/>
+    <row r="93" ht="40.15" customHeight="1"/>
+    <row r="94" ht="40.15" customHeight="1"/>
+    <row r="95" ht="40.15" customHeight="1"/>
+    <row r="96" ht="40.15" customHeight="1"/>
+    <row r="97" ht="40.15" customHeight="1"/>
+    <row r="98" ht="40.15" customHeight="1"/>
+    <row r="99" ht="40.15" customHeight="1"/>
+    <row r="100" ht="40.15" customHeight="1"/>
+    <row r="101" ht="40.15" customHeight="1"/>
+    <row r="102" ht="40.15" customHeight="1"/>
+    <row r="103" ht="40.15" customHeight="1"/>
+    <row r="104" ht="40.15" customHeight="1"/>
+    <row r="105" ht="40.15" customHeight="1"/>
+    <row r="106" ht="40.15" customHeight="1"/>
+    <row r="107" ht="40.15" customHeight="1"/>
+    <row r="108" ht="40.15" customHeight="1"/>
+    <row r="109" ht="40.15" customHeight="1"/>
+    <row r="110" ht="40.15" customHeight="1"/>
+    <row r="111" ht="40.15" customHeight="1"/>
+    <row r="112" ht="40.15" customHeight="1"/>
+    <row r="113" ht="40.15" customHeight="1"/>
+    <row r="114" ht="40.15" customHeight="1"/>
+    <row r="115" ht="40.15" customHeight="1"/>
+    <row r="116" ht="40.15" customHeight="1"/>
+    <row r="117" ht="40.15" customHeight="1"/>
+    <row r="118" ht="40.15" customHeight="1"/>
+    <row r="119" ht="40.15" customHeight="1"/>
+    <row r="120" ht="40.15" customHeight="1"/>
+    <row r="121" ht="40.15" customHeight="1"/>
+    <row r="122" ht="40.15" customHeight="1"/>
+    <row r="123" ht="40.15" customHeight="1"/>
+    <row r="124" ht="40.15" customHeight="1"/>
+    <row r="125" ht="40.15" customHeight="1"/>
+    <row r="126" ht="40.15" customHeight="1"/>
+    <row r="127" ht="40.15" customHeight="1"/>
+    <row r="128" ht="40.15" customHeight="1"/>
+    <row r="129" ht="40.15" customHeight="1"/>
+    <row r="130" ht="40.15" customHeight="1"/>
+    <row r="131" ht="40.15" customHeight="1"/>
+    <row r="132" ht="40.15" customHeight="1"/>
+    <row r="133" ht="40.15" customHeight="1"/>
+    <row r="134" ht="40.15" customHeight="1"/>
+    <row r="135" ht="40.15" customHeight="1"/>
+    <row r="136" ht="40.15" customHeight="1"/>
+    <row r="137" ht="40.15" customHeight="1"/>
+    <row r="138" ht="40.15" customHeight="1"/>
+    <row r="139" ht="40.15" customHeight="1"/>
+    <row r="140" ht="40.15" customHeight="1"/>
+    <row r="141" ht="40.15" customHeight="1"/>
+    <row r="142" ht="40.15" customHeight="1"/>
+    <row r="143" ht="40.15" customHeight="1"/>
+    <row r="144" ht="40.15" customHeight="1"/>
+    <row r="145" ht="40.15" customHeight="1"/>
+    <row r="146" ht="40.15" customHeight="1"/>
+    <row r="147" ht="40.15" customHeight="1"/>
+    <row r="148" ht="40.15" customHeight="1"/>
+    <row r="149" ht="40.15" customHeight="1"/>
+    <row r="150" ht="40.15" customHeight="1"/>
+    <row r="151" ht="40.15" customHeight="1"/>
+    <row r="152" ht="40.15" customHeight="1"/>
+    <row r="153" ht="40.15" customHeight="1"/>
+    <row r="154" ht="40.15" customHeight="1"/>
+    <row r="155" ht="40.15" customHeight="1"/>
+    <row r="156" ht="40.15" customHeight="1"/>
+    <row r="157" ht="40.15" customHeight="1"/>
+    <row r="158" ht="40.15" customHeight="1"/>
+    <row r="159" ht="40.15" customHeight="1"/>
+    <row r="160" ht="40.15" customHeight="1"/>
+    <row r="161" ht="40.15" customHeight="1"/>
+    <row r="162" ht="40.15" customHeight="1"/>
+    <row r="163" ht="40.15" customHeight="1"/>
+    <row r="164" ht="40.15" customHeight="1"/>
+    <row r="165" ht="40.15" customHeight="1"/>
+    <row r="166" ht="40.15" customHeight="1"/>
+    <row r="167" ht="40.15" customHeight="1"/>
+    <row r="168" ht="40.15" customHeight="1"/>
+    <row r="169" ht="40.15" customHeight="1"/>
+    <row r="170" ht="40.15" customHeight="1"/>
+    <row r="171" ht="40.15" customHeight="1"/>
+    <row r="172" ht="40.15" customHeight="1"/>
+    <row r="173" ht="40.15" customHeight="1"/>
+    <row r="174" ht="40.15" customHeight="1"/>
+    <row r="175" ht="40.15" customHeight="1"/>
+    <row r="176" ht="40.15" customHeight="1"/>
+    <row r="177" ht="40.15" customHeight="1"/>
+    <row r="178" ht="40.15" customHeight="1"/>
+    <row r="179" ht="40.15" customHeight="1"/>
+    <row r="180" ht="40.15" customHeight="1"/>
+    <row r="181" ht="40.15" customHeight="1"/>
+    <row r="182" ht="40.15" customHeight="1"/>
+    <row r="183" ht="40.15" customHeight="1"/>
+    <row r="184" ht="40.15" customHeight="1"/>
+    <row r="185" ht="40.15" customHeight="1"/>
+    <row r="186" ht="40.15" customHeight="1"/>
+    <row r="187" ht="40.15" customHeight="1"/>
+    <row r="188" ht="40.15" customHeight="1"/>
+    <row r="189" ht="40.15" customHeight="1"/>
+    <row r="190" ht="40.15" customHeight="1"/>
+    <row r="191" ht="40.15" customHeight="1"/>
+    <row r="192" ht="40.15" customHeight="1"/>
+    <row r="193" ht="40.15" customHeight="1"/>
+    <row r="194" ht="40.15" customHeight="1"/>
+    <row r="195" ht="40.15" customHeight="1"/>
+    <row r="196" ht="40.15" customHeight="1"/>
+    <row r="197" ht="40.15" customHeight="1"/>
+    <row r="198" ht="40.15" customHeight="1"/>
+    <row r="199" ht="40.15" customHeight="1"/>
+    <row r="200" ht="40.15" customHeight="1"/>
+    <row r="201" ht="40.15" customHeight="1"/>
+    <row r="202" ht="40.15" customHeight="1"/>
+    <row r="203" ht="40.15" customHeight="1"/>
+    <row r="204" ht="40.15" customHeight="1"/>
+    <row r="205" ht="40.15" customHeight="1"/>
+    <row r="206" ht="40.15" customHeight="1"/>
+    <row r="207" ht="40.15" customHeight="1"/>
+    <row r="208" ht="40.15" customHeight="1"/>
+    <row r="209" ht="40.15" customHeight="1"/>
+    <row r="210" ht="40.15" customHeight="1"/>
+    <row r="211" ht="40.15" customHeight="1"/>
+    <row r="212" ht="40.15" customHeight="1"/>
+    <row r="213" ht="40.15" customHeight="1"/>
+    <row r="214" ht="40.15" customHeight="1"/>
+    <row r="215" ht="40.15" customHeight="1"/>
+    <row r="216" ht="40.15" customHeight="1"/>
+    <row r="217" ht="40.15" customHeight="1"/>
+    <row r="218" ht="40.15" customHeight="1"/>
+    <row r="219" ht="40.15" customHeight="1"/>
+    <row r="220" ht="40.15" customHeight="1"/>
+    <row r="221" ht="40.15" customHeight="1"/>
+    <row r="222" ht="40.15" customHeight="1"/>
+    <row r="223" ht="40.15" customHeight="1"/>
+    <row r="224" ht="40.15" customHeight="1"/>
+    <row r="225" ht="40.15" customHeight="1"/>
+    <row r="226" ht="40.15" customHeight="1"/>
+    <row r="227" ht="40.15" customHeight="1"/>
+    <row r="228" ht="40.15" customHeight="1"/>
+    <row r="229" ht="40.15" customHeight="1"/>
+    <row r="230" ht="40.15" customHeight="1"/>
+    <row r="231" ht="40.15" customHeight="1"/>
+    <row r="232" ht="40.15" customHeight="1"/>
+    <row r="233" ht="40.15" customHeight="1"/>
+    <row r="234" ht="40.15" customHeight="1"/>
+    <row r="235" ht="40.15" customHeight="1"/>
+    <row r="236" ht="40.15" customHeight="1"/>
+    <row r="237" ht="40.15" customHeight="1"/>
+    <row r="238" ht="40.15" customHeight="1"/>
+    <row r="239" ht="40.15" customHeight="1"/>
+    <row r="240" ht="40.15" customHeight="1"/>
+    <row r="241" ht="40.15" customHeight="1"/>
+    <row r="242" ht="40.15" customHeight="1"/>
+    <row r="243" ht="40.15" customHeight="1"/>
+    <row r="244" ht="40.15" customHeight="1"/>
+    <row r="245" ht="40.15" customHeight="1"/>
+    <row r="246" ht="40.15" customHeight="1"/>
+    <row r="247" ht="40.15" customHeight="1"/>
+    <row r="248" ht="40.15" customHeight="1"/>
+    <row r="249" ht="40.15" customHeight="1"/>
+    <row r="250" ht="40.15" customHeight="1"/>
+    <row r="251" ht="40.15" customHeight="1"/>
+    <row r="252" ht="40.15" customHeight="1"/>
+    <row r="253" ht="40.15" customHeight="1"/>
+    <row r="254" ht="40.15" customHeight="1"/>
+    <row r="255" ht="40.15" customHeight="1"/>
+    <row r="256" ht="40.15" customHeight="1"/>
+    <row r="257" ht="40.15" customHeight="1"/>
+    <row r="258" ht="40.15" customHeight="1"/>
+    <row r="259" ht="40.15" customHeight="1"/>
+    <row r="260" ht="40.15" customHeight="1"/>
+    <row r="261" ht="40.15" customHeight="1"/>
+    <row r="262" ht="40.15" customHeight="1"/>
+    <row r="263" ht="40.15" customHeight="1"/>
+    <row r="264" ht="40.15" customHeight="1"/>
+    <row r="265" ht="40.15" customHeight="1"/>
+    <row r="266" ht="40.15" customHeight="1"/>
+    <row r="267" ht="40.15" customHeight="1"/>
+    <row r="268" ht="40.15" customHeight="1"/>
+    <row r="269" ht="40.15" customHeight="1"/>
+    <row r="270" ht="40.15" customHeight="1"/>
+    <row r="271" ht="40.15" customHeight="1"/>
+    <row r="272" ht="40.15" customHeight="1"/>
+    <row r="273" ht="40.15" customHeight="1"/>
+    <row r="274" ht="40.15" customHeight="1"/>
+    <row r="275" ht="40.15" customHeight="1"/>
+    <row r="276" ht="40.15" customHeight="1"/>
+    <row r="277" ht="40.15" customHeight="1"/>
+    <row r="278" ht="40.15" customHeight="1"/>
+    <row r="279" ht="40.15" customHeight="1"/>
+    <row r="280" ht="40.15" customHeight="1"/>
+    <row r="281" ht="40.15" customHeight="1"/>
+    <row r="282" ht="40.15" customHeight="1"/>
+    <row r="283" ht="40.15" customHeight="1"/>
+    <row r="284" ht="40.15" customHeight="1"/>
+    <row r="285" ht="40.15" customHeight="1"/>
+    <row r="286" ht="40.15" customHeight="1"/>
+    <row r="287" ht="40.15" customHeight="1"/>
+    <row r="288" ht="40.15" customHeight="1"/>
+    <row r="289" ht="40.15" customHeight="1"/>
+    <row r="290" ht="40.15" customHeight="1"/>
+    <row r="291" ht="40.15" customHeight="1"/>
+    <row r="292" ht="40.15" customHeight="1"/>
+    <row r="293" ht="40.15" customHeight="1"/>
+    <row r="294" ht="40.15" customHeight="1"/>
+    <row r="295" ht="40.15" customHeight="1"/>
+    <row r="296" ht="40.15" customHeight="1"/>
+    <row r="297" ht="40.15" customHeight="1"/>
+    <row r="298" ht="40.15" customHeight="1"/>
+    <row r="299" ht="40.15" customHeight="1"/>
+    <row r="300" ht="40.15" customHeight="1"/>
+    <row r="301" ht="40.15" customHeight="1"/>
+    <row r="302" ht="40.15" customHeight="1"/>
+    <row r="303" ht="40.15" customHeight="1"/>
+    <row r="304" ht="40.15" customHeight="1"/>
+    <row r="305" ht="40.15" customHeight="1"/>
+    <row r="306" ht="40.15" customHeight="1"/>
+    <row r="307" ht="40.15" customHeight="1"/>
+    <row r="308" ht="40.15" customHeight="1"/>
+    <row r="309" ht="40.15" customHeight="1"/>
+    <row r="310" ht="40.15" customHeight="1"/>
+    <row r="311" ht="40.15" customHeight="1"/>
+    <row r="312" ht="40.15" customHeight="1"/>
+    <row r="313" ht="40.15" customHeight="1"/>
+    <row r="314" ht="40.15" customHeight="1"/>
+    <row r="315" ht="40.15" customHeight="1"/>
+    <row r="316" ht="40.15" customHeight="1"/>
+    <row r="317" ht="40.15" customHeight="1"/>
+    <row r="318" ht="40.15" customHeight="1"/>
+    <row r="319" ht="40.15" customHeight="1"/>
+    <row r="320" ht="40.15" customHeight="1"/>
+    <row r="321" ht="40.15" customHeight="1"/>
+    <row r="322" ht="40.15" customHeight="1"/>
+    <row r="323" ht="40.15" customHeight="1"/>
+    <row r="324" ht="40.15" customHeight="1"/>
+    <row r="325" ht="40.15" customHeight="1"/>
+    <row r="326" ht="40.15" customHeight="1"/>
+    <row r="327" ht="40.15" customHeight="1"/>
+    <row r="328" ht="40.15" customHeight="1"/>
+    <row r="329" ht="40.15" customHeight="1"/>
+    <row r="330" ht="40.15" customHeight="1"/>
+    <row r="331" ht="40.15" customHeight="1"/>
+    <row r="332" ht="40.15" customHeight="1"/>
+    <row r="333" ht="40.15" customHeight="1"/>
+    <row r="334" ht="40.15" customHeight="1"/>
+    <row r="335" ht="40.15" customHeight="1"/>
+    <row r="336" ht="40.15" customHeight="1"/>
+    <row r="337" ht="40.15" customHeight="1"/>
+    <row r="338" ht="40.15" customHeight="1"/>
+    <row r="339" ht="40.15" customHeight="1"/>
+    <row r="340" ht="40.15" customHeight="1"/>
+    <row r="341" ht="40.15" customHeight="1"/>
+    <row r="342" ht="40.15" customHeight="1"/>
+    <row r="343" ht="40.15" customHeight="1"/>
+    <row r="344" ht="40.15" customHeight="1"/>
+    <row r="345" ht="40.15" customHeight="1"/>
+    <row r="346" ht="40.15" customHeight="1"/>
+    <row r="347" ht="40.15" customHeight="1"/>
+    <row r="348" ht="40.15" customHeight="1"/>
+    <row r="349" ht="40.15" customHeight="1"/>
+    <row r="350" ht="40.15" customHeight="1"/>
+    <row r="351" ht="40.15" customHeight="1"/>
+    <row r="352" ht="40.15" customHeight="1"/>
+    <row r="353" ht="40.15" customHeight="1"/>
+    <row r="354" ht="40.15" customHeight="1"/>
+    <row r="355" ht="40.15" customHeight="1"/>
+    <row r="356" ht="40.15" customHeight="1"/>
+    <row r="357" ht="40.15" customHeight="1"/>
+    <row r="358" ht="40.15" customHeight="1"/>
+    <row r="359" ht="40.15" customHeight="1"/>
+    <row r="360" ht="40.15" customHeight="1"/>
+    <row r="361" ht="40.15" customHeight="1"/>
+    <row r="362" ht="40.15" customHeight="1"/>
+    <row r="363" ht="40.15" customHeight="1"/>
+    <row r="364" ht="40.15" customHeight="1"/>
+    <row r="365" ht="40.15" customHeight="1"/>
+    <row r="366" ht="40.15" customHeight="1"/>
+    <row r="367" ht="40.15" customHeight="1"/>
+    <row r="368" ht="40.15" customHeight="1"/>
+    <row r="369" ht="40.15" customHeight="1"/>
+    <row r="370" ht="40.15" customHeight="1"/>
+    <row r="371" ht="40.15" customHeight="1"/>
+    <row r="372" ht="40.15" customHeight="1"/>
+    <row r="373" ht="40.15" customHeight="1"/>
+    <row r="374" ht="40.15" customHeight="1"/>
+    <row r="375" ht="40.15" customHeight="1"/>
+    <row r="376" ht="40.15" customHeight="1"/>
+    <row r="377" ht="40.15" customHeight="1"/>
+    <row r="378" ht="40.15" customHeight="1"/>
+    <row r="379" ht="40.15" customHeight="1"/>
+    <row r="380" ht="40.15" customHeight="1"/>
+    <row r="381" ht="40.15" customHeight="1"/>
+    <row r="382" ht="40.15" customHeight="1"/>
+    <row r="383" ht="40.15" customHeight="1"/>
+    <row r="384" ht="40.15" customHeight="1"/>
+    <row r="385" ht="40.15" customHeight="1"/>
+    <row r="386" ht="40.15" customHeight="1"/>
+    <row r="387" ht="40.15" customHeight="1"/>
+    <row r="388" ht="40.15" customHeight="1"/>
+    <row r="389" ht="40.15" customHeight="1"/>
+    <row r="390" ht="40.15" customHeight="1"/>
+    <row r="391" ht="40.15" customHeight="1"/>
+    <row r="392" ht="40.15" customHeight="1"/>
+    <row r="393" ht="40.15" customHeight="1"/>
+    <row r="394" ht="40.15" customHeight="1"/>
+    <row r="395" ht="40.15" customHeight="1"/>
+    <row r="396" ht="40.15" customHeight="1"/>
+    <row r="397" ht="40.15" customHeight="1"/>
+    <row r="398" ht="40.15" customHeight="1"/>
+    <row r="399" ht="40.15" customHeight="1"/>
+    <row r="400" ht="40.15" customHeight="1"/>
+    <row r="401" ht="40.15" customHeight="1"/>
+    <row r="402" ht="40.15" customHeight="1"/>
+    <row r="403" ht="40.15" customHeight="1"/>
+    <row r="404" ht="40.15" customHeight="1"/>
+    <row r="405" ht="40.15" customHeight="1"/>
+    <row r="406" ht="40.15" customHeight="1"/>
+    <row r="407" ht="40.15" customHeight="1"/>
+    <row r="408" ht="40.15" customHeight="1"/>
+    <row r="409" ht="40.15" customHeight="1"/>
+    <row r="410" ht="40.15" customHeight="1"/>
+    <row r="411" ht="40.15" customHeight="1"/>
+    <row r="412" ht="40.15" customHeight="1"/>
+    <row r="413" ht="40.15" customHeight="1"/>
+    <row r="414" ht="40.15" customHeight="1"/>
+    <row r="415" ht="40.15" customHeight="1"/>
+    <row r="416" ht="40.15" customHeight="1"/>
+    <row r="417" ht="40.15" customHeight="1"/>
+    <row r="418" ht="40.15" customHeight="1"/>
+    <row r="419" ht="40.15" customHeight="1"/>
+    <row r="420" ht="40.15" customHeight="1"/>
+    <row r="421" ht="40.15" customHeight="1"/>
+    <row r="422" ht="40.15" customHeight="1"/>
+    <row r="423" ht="40.15" customHeight="1"/>
+    <row r="424" ht="40.15" customHeight="1"/>
+    <row r="425" ht="40.15" customHeight="1"/>
+    <row r="426" ht="40.15" customHeight="1"/>
+    <row r="427" ht="40.15" customHeight="1"/>
+    <row r="428" ht="40.15" customHeight="1"/>
+    <row r="429" ht="40.15" customHeight="1"/>
+    <row r="430" ht="40.15" customHeight="1"/>
+    <row r="431" ht="40.15" customHeight="1"/>
+    <row r="432" ht="40.15" customHeight="1"/>
+    <row r="433" ht="40.15" customHeight="1"/>
+    <row r="434" ht="40.15" customHeight="1"/>
+    <row r="435" ht="40.15" customHeight="1"/>
+    <row r="436" ht="40.15" customHeight="1"/>
+    <row r="437" ht="40.15" customHeight="1"/>
+    <row r="438" ht="40.15" customHeight="1"/>
+    <row r="439" ht="40.15" customHeight="1"/>
+    <row r="440" ht="40.15" customHeight="1"/>
+    <row r="441" ht="40.15" customHeight="1"/>
+    <row r="442" ht="40.15" customHeight="1"/>
+    <row r="443" ht="40.15" customHeight="1"/>
+    <row r="444" ht="40.15" customHeight="1"/>
+    <row r="445" ht="40.15" customHeight="1"/>
+    <row r="446" ht="40.15" customHeight="1"/>
+    <row r="447" ht="40.15" customHeight="1"/>
+    <row r="448" ht="40.15" customHeight="1"/>
+    <row r="449" ht="30" customHeight="1"/>
     <row r="450" ht="30" customHeight="1"/>
     <row r="451" ht="30" customHeight="1"/>
     <row r="452" ht="30" customHeight="1"/>
@@ -2476,14 +2447,15 @@
     <row r="454" ht="30" customHeight="1"/>
     <row r="455" ht="30" customHeight="1"/>
     <row r="456" ht="30" customHeight="1"/>
-    <row r="457" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B27:B35"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="B10:B11"/>
@@ -2491,16 +2463,14 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A26:A42"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="F7:H12 F13:G42">
+  <conditionalFormatting sqref="F7:H12 F13:G41">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"하"</formula>
     </cfRule>
